--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdOverdue.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdOverdue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A909AD2-EF3E-4EEC-87A9-28940A4608B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE97D22-1DF9-41C1-8D23-0F263EDD4B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>逾期增減碼</t>
   </si>
   <si>
-    <t>1: 增加 2: 減少</t>
-  </si>
-  <si>
     <t>增減原因代號</t>
   </si>
   <si>
@@ -233,10 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OverdueSign,OverdueCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,6 +275,16 @@
   </si>
   <si>
     <t>overdueCodeRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:增加
+2:減少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -930,7 +933,7 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>29</v>
@@ -958,7 +961,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
@@ -982,7 +985,7 @@
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -995,7 +998,7 @@
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="25"/>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="25"/>
@@ -1038,12 +1041,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="32.4">
       <c r="A9" s="29">
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>30</v>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4">
@@ -1064,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>9</v>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1085,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>10</v>
@@ -1099,15 +1102,15 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="32.4">
       <c r="A12" s="29">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>9</v>
@@ -1117,7 +1120,7 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1293,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1319,37 +1322,37 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
